--- a/src/logs/Volume of Potholes.xlsx
+++ b/src/logs/Volume of Potholes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DFFA06-EB28-4045-A766-021057109B7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5449F8-731A-40BC-BF97-97719E402606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,33 @@
   </si>
   <si>
     <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
   </si>
 </sst>
 </file>
@@ -204,9 +231,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>P1</c:v>
                 </c:pt>
@@ -242,16 +269,43 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>3.656942943869939E-2</c:v>
                 </c:pt>
@@ -287,6 +341,33 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.2187580387919942E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1897926634768717E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13685239491691104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9615166949632158E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5274476513865326E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1383443947111185E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1383443947111185E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12244687966249936</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4180686319905349E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4470340073056556E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1371,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1505,7 @@
         <v>6.2185522457169316E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D13" si="0">B3*0.028317</f>
+        <f t="shared" ref="D3:D22" si="0">B3*0.028317</f>
         <v>1.7609074394196633E-3</v>
       </c>
     </row>
@@ -1556,6 +1637,123 @@
       <c r="D13">
         <f t="shared" si="0"/>
         <v>1.1946257138447289E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <f>(24.15-21.05)/F1</f>
+        <v>3.1897926634768717E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>9.0325358851674566E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <f>(24.15-10.85)/F1</f>
+        <v>0.13685239491691104</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3.8752492668621694E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <f>(23.55-19.7)/F1</f>
+        <v>3.9615166949632158E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.1217826825127338E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <f>(23.55-19.15)/F1</f>
+        <v>4.5274476513865326E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.2820373514431244E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <f>(23.5-20.45)/F1</f>
+        <v>3.1383443947111185E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>8.886849822503474E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <f>(23.5-20.45)/F1</f>
+        <v>3.1383443947111185E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>8.886849822503474E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <f>(23.5-11.6)/F1</f>
+        <v>0.12244687966249936</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3.4673282914029942E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <f>(23.5-21.15)/F1</f>
+        <v>2.4180686319905349E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>6.8472449452075968E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <f>(23.5-20.15)/F1</f>
+        <v>3.4470340073056556E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>9.760966198487424E-4</v>
       </c>
     </row>
   </sheetData>
